--- a/documents/MET POLICE ANALYSIS CLASS A DRUGS TABULATED.xlsx
+++ b/documents/MET POLICE ANALYSIS CLASS A DRUGS TABULATED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barnie/Documents/DRUGS STORY &amp; ASSIGNMENT/DRUGS FOI FOR GITHUB/EXCEL SHEETS &amp; FOI RESPONSES/MET POLICE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295630C4-46F5-AC4E-97BF-FC3F8FBD7C47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6B0B96-500A-9A44-8F72-097ACA38AB57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{C7C8A286-7365-4E45-A2C8-4880A8F9C306}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>Detainee Self Ethnicity Description</t>
   </si>
@@ -543,6 +543,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,15 +606,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1958,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CC45AE-A62C-9040-8135-8C998F99C80C}">
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1973,92 +1973,92 @@
       <c r="A1">
         <v>2018</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="40">
+      <c r="Q3" s="22">
         <v>443</v>
       </c>
-      <c r="R3" s="41">
+      <c r="R3" s="23">
         <v>1250</v>
       </c>
-      <c r="S3" s="41">
+      <c r="S3" s="23">
         <v>1255</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42" t="s">
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="42" t="s">
+      <c r="Y3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="42" t="s">
+      <c r="Z3" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
@@ -2093,30 +2093,30 @@
       <c r="M4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="31"/>
-      <c r="Q4" s="40">
+      <c r="N4" s="34"/>
+      <c r="O4" s="36"/>
+      <c r="Q4" s="22">
         <v>562</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="23">
         <v>1191</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="23">
         <v>2815</v>
       </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="42">
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="24">
         <v>2018</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="24">
         <v>4217</v>
       </c>
-      <c r="Y4" s="42">
+      <c r="Y4" s="24">
         <v>1472</v>
       </c>
-      <c r="Z4" s="42">
+      <c r="Z4" s="24">
         <v>3608</v>
       </c>
     </row>
@@ -2160,28 +2160,28 @@
       <c r="O5" s="14">
         <v>472</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="Q5" s="22">
         <v>241</v>
       </c>
-      <c r="R5" s="41">
+      <c r="R5" s="23">
         <v>1167</v>
       </c>
-      <c r="S5" s="41">
+      <c r="S5" s="23">
         <v>147</v>
       </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="42">
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="24">
         <v>2019</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="24">
         <v>4657</v>
       </c>
-      <c r="Y5" s="42">
+      <c r="Y5" s="24">
         <v>1628</v>
       </c>
-      <c r="Z5" s="42">
+      <c r="Z5" s="24">
         <v>3792</v>
       </c>
     </row>
@@ -2221,18 +2221,18 @@
       <c r="O6" s="14">
         <v>569</v>
       </c>
-      <c r="Q6" s="40">
+      <c r="Q6" s="22">
         <v>226</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
@@ -2270,28 +2270,28 @@
       <c r="O7" s="14">
         <v>254</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="25">
         <f>SUM(Q3:Q6)</f>
         <v>1472</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R7" s="25">
         <f>SUM(R3:R6)</f>
         <v>3608</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="25">
         <f>SUM(S3:S6)</f>
         <v>4217</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="43">
+      <c r="T7" s="21"/>
+      <c r="U7" s="25">
         <f>SUM(Q7:T7)</f>
         <v>9297</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
@@ -2331,16 +2331,16 @@
       <c r="O8" s="14">
         <v>235</v>
       </c>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -2380,25 +2380,25 @@
       <c r="O9" s="14">
         <v>1250</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="21">
         <f>(1472/9297)*100</f>
         <v>15.833064429385823</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="21">
         <f>(3608/9297)*100</f>
         <v>38.808217704635908</v>
       </c>
-      <c r="S9" s="39">
+      <c r="S9" s="21">
         <f>(4217/9297)*100</f>
         <v>45.358717865978271</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -2440,16 +2440,16 @@
       <c r="O10" s="14">
         <v>1191</v>
       </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
@@ -2493,24 +2493,24 @@
       <c r="O11" s="14">
         <v>1167</v>
       </c>
-      <c r="Q11" s="39" t="s">
+      <c r="Q11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="39" t="s">
+      <c r="R11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="39" t="s">
+      <c r="S11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39" t="s">
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -2538,24 +2538,24 @@
       <c r="O12" s="14">
         <v>3</v>
       </c>
-      <c r="Q12" s="39" t="s">
+      <c r="Q12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="21">
         <v>59</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="21">
         <v>45.4</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39">
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21">
         <v>46.2</v>
       </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
@@ -2597,24 +2597,24 @@
       <c r="O13" s="14">
         <v>251</v>
       </c>
-      <c r="Q13" s="39" t="s">
+      <c r="Q13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="21">
         <v>12</v>
       </c>
-      <c r="S13" s="39">
+      <c r="S13" s="21">
         <v>38.799999999999997</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39">
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21">
         <v>37.6</v>
       </c>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -2654,26 +2654,26 @@
       <c r="O14" s="14">
         <v>51</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="21">
         <v>18</v>
       </c>
-      <c r="S14" s="39">
+      <c r="S14" s="21">
         <v>15.8</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39">
+      <c r="U14" s="21"/>
+      <c r="V14" s="21">
         <v>16.2</v>
       </c>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
@@ -2711,22 +2711,22 @@
       <c r="O15" s="14">
         <v>100</v>
       </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39">
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21">
         <f>SUM(S12:S14)</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39">
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21">
         <f>SUM(V12:V14)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
@@ -2766,16 +2766,16 @@
       <c r="O16" s="14">
         <v>343</v>
       </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -3108,31 +3108,31 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="37" t="s">
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="O28" s="21" t="s">
+      <c r="O28" s="26" t="s">
         <v>5</v>
       </c>
       <c r="Y28" t="s">
@@ -3143,7 +3143,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="38"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="1" t="s">
         <v>6</v>
       </c>
@@ -3178,8 +3178,8 @@
       <c r="M29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="38"/>
-      <c r="O29" s="22"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="27"/>
       <c r="Q29" s="19">
         <v>517</v>
       </c>
@@ -4050,6 +4050,177 @@
       </c>
       <c r="T48">
         <v>1628</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>2018</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51">
+        <v>2019</v>
+      </c>
+      <c r="J51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>472</v>
+      </c>
+      <c r="F52">
+        <v>1250</v>
+      </c>
+      <c r="G52">
+        <v>1255</v>
+      </c>
+      <c r="J52">
+        <v>571</v>
+      </c>
+      <c r="K52">
+        <v>1351</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>569</v>
+      </c>
+      <c r="F53">
+        <v>1191</v>
+      </c>
+      <c r="G53">
+        <v>2815</v>
+      </c>
+      <c r="J53">
+        <v>576</v>
+      </c>
+      <c r="K53">
+        <v>1319</v>
+      </c>
+      <c r="L53" s="5">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>254</v>
+      </c>
+      <c r="F54">
+        <v>1167</v>
+      </c>
+      <c r="G54">
+        <v>147</v>
+      </c>
+      <c r="J54">
+        <v>289</v>
+      </c>
+      <c r="K54">
+        <v>1122</v>
+      </c>
+      <c r="L54" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>235</v>
+      </c>
+      <c r="J55">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <f>SUM(E52:E55)</f>
+        <v>1530</v>
+      </c>
+      <c r="F56">
+        <f>SUM(F52:F55)</f>
+        <v>3608</v>
+      </c>
+      <c r="G56">
+        <f>SUM(G52:G55)</f>
+        <v>4217</v>
+      </c>
+      <c r="J56">
+        <f>SUM(J52:J55)</f>
+        <v>1682</v>
+      </c>
+      <c r="K56">
+        <f>SUM(K52:K55)</f>
+        <v>3792</v>
+      </c>
+      <c r="L56" s="3">
+        <f>SUM(L52:L55)</f>
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="58" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62">
+        <f>(4657-4217)/4217*100</f>
+        <v>10.433957789898033</v>
+      </c>
+      <c r="O62">
+        <f>SUM(O58:O61)</f>
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <f>(1682-1530)/1530*100</f>
+        <v>9.9346405228758172</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64">
+        <f>(3792-3608)/3608*100</f>
+        <v>5.0997782705099777</v>
       </c>
     </row>
   </sheetData>
